--- a/DataTypeCompilationWorkbooks/Definitions/UnitOfMeasure.xlsx
+++ b/DataTypeCompilationWorkbooks/Definitions/UnitOfMeasure.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\USGIN\digital-crust-LDR\DataTypeCompilationWorkbooks\Definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UnitOfMeasure" sheetId="1" r:id="rId1"/>
+    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>gallons per minute</t>
   </si>
@@ -111,12 +112,15 @@
   </si>
   <si>
     <t>http://vocabulary.odm2.org/unitstype/concentrationordensitymasspervolume</t>
+  </si>
+  <si>
+    <t>millions of years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -188,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,13 +211,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -488,23 +523,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="68.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -521,19 +556,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B2, " ", "-"))</f>
-        <v>def/uom/darcy</v>
+        <f t="shared" ref="A2:A16" si="0">"def/units-of-measure/" &amp; LOWER(SUBSTITUTE(B2, " ", "-"))</f>
+        <v>def/units-of-measure/darcy</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B3, " ", "-"))</f>
-        <v>def/uom/degree</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/degree</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -545,10 +580,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B4, " ", "-"))</f>
-        <v>def/uom/degree-celsius</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/degree-celsius</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -557,10 +592,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B5, " ", "-"))</f>
-        <v>def/uom/feet</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/feet</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -569,10 +604,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B6, " ", "-"))</f>
-        <v>def/uom/feet-per-day</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/feet-per-day</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -581,10 +616,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B7, " ", "-"))</f>
-        <v>def/uom/gallons-per-minute</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/gallons-per-minute</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -593,10 +628,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B8, " ", "-"))</f>
-        <v>def/uom/kilogram</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/kilogram</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -605,10 +640,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B9, " ", "-"))</f>
-        <v>def/uom/kilogram-per-cubic-meter</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/kilogram-per-cubic-meter</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -617,10 +652,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B10, " ", "-"))</f>
-        <v>def/uom/kilometer</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/kilometer</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -629,10 +664,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B11, " ", "-"))</f>
-        <v>def/uom/megawatt</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/megawatt</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -641,10 +676,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B12, " ", "-"))</f>
-        <v>def/uom/meter</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/meter</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -653,10 +688,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B13, " ", "-"))</f>
-        <v>def/uom/meters-per-sec</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/meters-per-sec</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -665,10 +700,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B14, " ", "-"))</f>
-        <v>def/uom/millidarcy</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/millidarcy</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -677,13 +712,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
-        <f>"def/uom/" &amp; LOWER(SUBSTITUTE(B15, " ", "-"))</f>
-        <v>def/uom/percent</v>
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/percent</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>def/units-of-measure/millions-of-years</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -691,5 +735,132 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="103.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A2&amp;"', '"&amp;UnitOfMeasure!B2&amp;"', '"&amp;UnitOfMeasure!C2&amp;"', '"&amp;UnitOfMeasure!D2&amp;"', '"&amp;UnitOfMeasure!E2&amp;"'),"</f>
+        <v>('def/units-of-measure/darcy', 'darcy', '', '', ''),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A3&amp;"', '"&amp;UnitOfMeasure!B3&amp;"', '"&amp;UnitOfMeasure!C3&amp;"', '"&amp;UnitOfMeasure!D3&amp;"', '"&amp;UnitOfMeasure!E3&amp;"'),"</f>
+        <v>('def/units-of-measure/degree', 'degree', 'angular part of a circle', '', 'http://vocabulary.odm2.org/unitstype/angle'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A4&amp;"', '"&amp;UnitOfMeasure!B4&amp;"', '"&amp;UnitOfMeasure!C4&amp;"', '"&amp;UnitOfMeasure!D4&amp;"', '"&amp;UnitOfMeasure!E4&amp;"'),"</f>
+        <v>('def/units-of-measure/degree-celsius', 'degree Celsius', '', '', 'http://vocabulary.odm2.org/unitstype/temperature'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A5&amp;"', '"&amp;UnitOfMeasure!B5&amp;"', '"&amp;UnitOfMeasure!C5&amp;"', '"&amp;UnitOfMeasure!D5&amp;"', '"&amp;UnitOfMeasure!E5&amp;"'),"</f>
+        <v>('def/units-of-measure/feet', 'feet', '', '', 'http://vocabulary.odm2.org/unitstype/length'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A6&amp;"', '"&amp;UnitOfMeasure!B6&amp;"', '"&amp;UnitOfMeasure!C6&amp;"', '"&amp;UnitOfMeasure!D6&amp;"', '"&amp;UnitOfMeasure!E6&amp;"'),"</f>
+        <v>('def/units-of-measure/feet-per-day', 'feet per day', '', '', 'http://vocabulary.odm2.org/unitstype/linearvelocity'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A7&amp;"', '"&amp;UnitOfMeasure!B7&amp;"', '"&amp;UnitOfMeasure!C7&amp;"', '"&amp;UnitOfMeasure!D7&amp;"', '"&amp;UnitOfMeasure!E7&amp;"'),"</f>
+        <v>('def/units-of-measure/gallons-per-minute', 'gallons per minute', '', '', 'http://vocabulary.odm2.org/unitstype/volumetricflowrate'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A8&amp;"', '"&amp;UnitOfMeasure!B8&amp;"', '"&amp;UnitOfMeasure!C8&amp;"', '"&amp;UnitOfMeasure!D8&amp;"', '"&amp;UnitOfMeasure!E8&amp;"'),"</f>
+        <v>('def/units-of-measure/kilogram', 'kilogram', '', '', 'http://vocabulary.odm2.org/unitstype/mass'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A9&amp;"', '"&amp;UnitOfMeasure!B9&amp;"', '"&amp;UnitOfMeasure!C9&amp;"', '"&amp;UnitOfMeasure!D9&amp;"', '"&amp;UnitOfMeasure!E9&amp;"'),"</f>
+        <v>('def/units-of-measure/kilogram-per-cubic-meter', 'Kilogram per cubic meter', '', '', 'http://vocabulary.odm2.org/unitstype/concentrationordensitymasspervolume'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A10&amp;"', '"&amp;UnitOfMeasure!B10&amp;"', '"&amp;UnitOfMeasure!C10&amp;"', '"&amp;UnitOfMeasure!D10&amp;"', '"&amp;UnitOfMeasure!E10&amp;"'),"</f>
+        <v>('def/units-of-measure/kilometer', 'kilometer', '', '', 'http://vocabulary.odm2.org/unitstype/length'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A11&amp;"', '"&amp;UnitOfMeasure!B11&amp;"', '"&amp;UnitOfMeasure!C11&amp;"', '"&amp;UnitOfMeasure!D11&amp;"', '"&amp;UnitOfMeasure!E11&amp;"'),"</f>
+        <v>('def/units-of-measure/megawatt', 'megaWatt', '', '', 'http://vocabulary.odm2.org/unitstype/power'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A12&amp;"', '"&amp;UnitOfMeasure!B12&amp;"', '"&amp;UnitOfMeasure!C12&amp;"', '"&amp;UnitOfMeasure!D12&amp;"', '"&amp;UnitOfMeasure!E12&amp;"'),"</f>
+        <v>('def/units-of-measure/meter', 'meter', '', '', 'http://vocabulary.odm2.org/unitstype/length'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A13&amp;"', '"&amp;UnitOfMeasure!B13&amp;"', '"&amp;UnitOfMeasure!C13&amp;"', '"&amp;UnitOfMeasure!D13&amp;"', '"&amp;UnitOfMeasure!E13&amp;"'),"</f>
+        <v>('def/units-of-measure/meters-per-sec', 'meters per sec', '', '', 'http://vocabulary.odm2.org/unitstype/linearvelocity'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A14&amp;"', '"&amp;UnitOfMeasure!B14&amp;"', '"&amp;UnitOfMeasure!C14&amp;"', '"&amp;UnitOfMeasure!D14&amp;"', '"&amp;UnitOfMeasure!E14&amp;"'),"</f>
+        <v>('def/units-of-measure/millidarcy', 'millidarcy', 'millidarcy (md) (1 darcy is 10^−12m^2); unit of measure for permeability. Dimension type is length^2', '', ''),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A15&amp;"', '"&amp;UnitOfMeasure!B15&amp;"', '"&amp;UnitOfMeasure!C15&amp;"', '"&amp;UnitOfMeasure!D15&amp;"', '"&amp;UnitOfMeasure!E15&amp;"'),"</f>
+        <v>('def/units-of-measure/percent', 'percent', '', '', ''),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A16&amp;"', '"&amp;UnitOfMeasure!B16&amp;"', '"&amp;UnitOfMeasure!C16&amp;"', '"&amp;UnitOfMeasure!D16&amp;"', '"&amp;UnitOfMeasure!E16&amp;"'),"</f>
+        <v>('def/units-of-measure/millions-of-years', 'millions of years', '', '', ''),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A17&amp;"', '"&amp;UnitOfMeasure!B17&amp;"', '"&amp;UnitOfMeasure!C17&amp;"', '"&amp;UnitOfMeasure!D17&amp;"', '"&amp;UnitOfMeasure!E17&amp;"'),"</f>
+        <v>('', '', '', '', ''),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A18&amp;"', '"&amp;UnitOfMeasure!B18&amp;"', '"&amp;UnitOfMeasure!C18&amp;"', '"&amp;UnitOfMeasure!D18&amp;"', '"&amp;UnitOfMeasure!E18&amp;"'),"</f>
+        <v>('', '', '', '', ''),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>"('"&amp;UnitOfMeasure!A19&amp;"', '"&amp;UnitOfMeasure!B19&amp;"', '"&amp;UnitOfMeasure!C19&amp;"', '"&amp;UnitOfMeasure!D19&amp;"', '"&amp;UnitOfMeasure!E19&amp;"'),"</f>
+        <v>('', '', '', '', ''),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>